--- a/pred_ohlcv/54_21/2019-10-19 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>189031.3902</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -782,7 +782,7 @@
         <v>171029.964</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>171029.964</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>174552.2986</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>170670.9757</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-127210.7933164794</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-88498.32921647943</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-88598.32921647943</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-88598.32921647943</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100400.6220164794</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-168074.1405164794</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-190776.7774164795</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-168202.4809164795</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-168202.4809164795</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-225500.6390164795</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-141110.5504164795</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>52157.61008352057</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>47370.44068352057</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>51232.51908352057</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6845.871683520574</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5215.485083520574</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-69279.29771647943</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-67752.08251647942</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-114901.2776164794</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-81945.3620164794</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-339724.1811164794</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-521196.4710164794</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LOOM ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>189031.3902</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -782,7 +782,7 @@
         <v>171029.964</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>171029.964</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>175076.3587</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>164952.2986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>174552.2986</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>170708.4288835206</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-127210.7933164794</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-190776.7774164795</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-190765.7774164795</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-168754.4809164795</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-225500.6390164795</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-141110.5504164795</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-81463.23851647947</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-212433.9778164795</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-212433.9778164795</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-211794.3521164795</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>60287.95478352057</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>52157.61008352057</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>60056.61008352057</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>47370.44068352057</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>51232.51908352057</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>23578.99468352057</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6845.871683520574</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5215.485083520574</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6282.485083520574</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7177.485083520574</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-69279.29771647943</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-67752.08251647942</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-114901.2776164794</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-81945.3620164794</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-31327.5330164794</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-32900.6095164794</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-33882.3119164794</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-31282.3119164794</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-29772.3119164794</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-279600.7529164794</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-254538.7943164794</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-305908.9602164794</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-285888.9602164794</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-339724.1811164794</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-388947.7054164794</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-485527.6695164794</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-481431.4709164794</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-521206.4710164794</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-521196.4710164794</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-779946.1080048851</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-743270.1081048851</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-699438.7024048851</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-699438.7024048851</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-764184.0264048851</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
